--- a/3. Difracción de Electrones/CompleteData/datos_difracciones_de_electrones.xlsx
+++ b/3. Difracción de Electrones/CompleteData/datos_difracciones_de_electrones.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_martinezc234_uniandes_edu_co/Documents/6to Semestre/Laboratorio Intermedio/Laboratorios/Semana 6 - Difracción de Electrones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\GitHub\Intermedio\3. Difracción de Electrones\CompleteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{1BD282BA-15A2-4D11-B3FC-5E4BFF385C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5343D1E-5103-4BE1-AC71-4FEFE23ABA69}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D66711-769F-4DA4-A5E9-6FAFFD4D9C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68CDB326-4FC1-433B-83EA-E1E555C1F277}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{68CDB326-4FC1-433B-83EA-E1E555C1F277}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Cálculos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>kV</t>
   </si>
@@ -64,13 +65,84 @@
   <si>
     <t xml:space="preserve"> Grosor D1 (cm)</t>
   </si>
+  <si>
+    <t>λ Bragg 2</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>eVs</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>eV/c^2</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>λ de Broglie (pm)</t>
+  </si>
+  <si>
+    <t>λ Bragg 1 (pm)</t>
+  </si>
+  <si>
+    <t>hc</t>
+  </si>
+  <si>
+    <t>eVm</t>
+  </si>
+  <si>
+    <t>error λ Bragg 1 (pm)</t>
+  </si>
+  <si>
+    <t>error λ Bragg 2 (pm)</t>
+  </si>
+  <si>
+    <t>error λ de Broglie (pm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -98,9 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3078,30 +3152,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE5AB5-66F9-4109-BB40-1372967BDD08}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="7" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="7" width="12.19921875" customWidth="1"/>
     <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
@@ -3110,10 +3184,10 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
@@ -3123,7 +3197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3148,7 +3222,7 @@
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>3.1</v>
       </c>
@@ -3181,7 +3255,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3.2</v>
       </c>
@@ -3214,7 +3288,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3.3</v>
       </c>
@@ -3247,7 +3321,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3.4</v>
       </c>
@@ -3280,7 +3354,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>3.5</v>
       </c>
@@ -3313,7 +3387,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>3.6</v>
       </c>
@@ -3346,7 +3420,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>3.7</v>
       </c>
@@ -3379,7 +3453,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>3.8</v>
       </c>
@@ -3412,7 +3486,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>3.9</v>
       </c>
@@ -3445,7 +3519,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>4</v>
       </c>
@@ -3478,7 +3552,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>4.0999999999999996</v>
       </c>
@@ -3511,7 +3585,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>4.2</v>
       </c>
@@ -3533,7 +3607,7 @@
         <v>2.13</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f>F14*2</f>
         <v>4.26</v>
       </c>
       <c r="H14">
@@ -3544,7 +3618,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>4.3</v>
       </c>
@@ -3577,7 +3651,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>4.4000000000000004</v>
       </c>
@@ -3610,7 +3684,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>4.5</v>
       </c>
@@ -3643,7 +3717,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>4.5999999999999996</v>
       </c>
@@ -3676,7 +3750,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>4.7</v>
       </c>
@@ -3709,7 +3783,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>4.8</v>
       </c>
@@ -3742,7 +3816,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>4.9000000000000004</v>
       </c>
@@ -3775,7 +3849,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3812,4 +3886,1006 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D8BD8-6966-4FF1-8AD7-8B2318FC98EA}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="13.8984375" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3.15</v>
+      </c>
+      <c r="C2">
+        <v>0.37000000000000005</v>
+      </c>
+      <c r="D2">
+        <v>5.23</v>
+      </c>
+      <c r="E2">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="F2" s="2">
+        <f>(( $B$25 )/( SQRT(2*A2*(10^3)*$B$27) ))*10^12</f>
+        <v>22.391371244517146</v>
+      </c>
+      <c r="G2" s="2">
+        <f>0.5*0.1*(( $B$25 )/( (2*A2*(10^3)*$B$27)^(3/2) ))*(10^12)*(2*(10^3)*$B$27)</f>
+        <v>0.37318952074195227</v>
+      </c>
+      <c r="H2">
+        <f>(2*$B$30/1)*SIN(0.5*ATAN(B2/(2*$B$32)))</f>
+        <v>24.724265115504476</v>
+      </c>
+      <c r="I2">
+        <f>C2*(2*$B$30/1)*COS(0.5*ATAN(B2/(2*$B$32)))*(0.5*( 1/( 1+(B2/(2*$B$32))^2 ) ))*(1/(2*$B$32))</f>
+        <v>2.8748389525438371</v>
+      </c>
+      <c r="J2">
+        <f>(2*$B$31/1)*SIN(0.5*ATAN(D2/(2*$B$32)))</f>
+        <v>23.498220453934252</v>
+      </c>
+      <c r="K2">
+        <f>E2*(2*$B$31/1)*COS(0.5*ATAN(D2/(2*$B$32)))*(0.5*( 1/( 1+(D2/(2*$B$32))^2 ) ))*(1/(2*$B$32))</f>
+        <v>1.2238044237287686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>3.1</v>
+      </c>
+      <c r="B3">
+        <v>2.88</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>5.2</v>
+      </c>
+      <c r="E3">
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F22" si="0">(( $B$25 )/( SQRT(2*A3*(10^3)*$B$27) ))*10^12</f>
+        <v>22.027259641176343</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G21" si="1">0.5*0.1*(( $B$25 )/( (2*A3*(10^3)*$B$27)^(3/2) ))*(10^12)*(2*(10^3)*$B$27)</f>
+        <v>0.35527838130929551</v>
+      </c>
+      <c r="H3">
+        <f>(2*$B$30/1)*SIN(0.5*ATAN(B3/(2*$B$32)))</f>
+        <v>22.623767597795915</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I22" si="2">C3*(2*$B$30/1)*COS(0.5*ATAN(B3/(2*$B$32)))*(0.5*( 1/( 1+(B3/(2*$B$32))^2 ) ))*(1/(2*$B$32))</f>
+        <v>1.5578266196278923</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J22" si="3">(2*$B$31/1)*SIN(0.5*ATAN(D3/(2*$B$32)))</f>
+        <v>23.367068031751241</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K22" si="4">E3*(2*$B$31/1)*COS(0.5*ATAN(D3/(2*$B$32)))*(0.5*( 1/( 1+(D3/(2*$B$32))^2 ) ))*(1/(2*$B$32))</f>
+        <v>0.96200787758734208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3.2</v>
+      </c>
+      <c r="B4">
+        <v>3.06</v>
+      </c>
+      <c r="C4">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D4">
+        <v>5.12</v>
+      </c>
+      <c r="E4">
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>21.680351982190636</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3387554997217298</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H21" si="5">(2*$B$30/1)*SIN(0.5*ATAN(B4/(2*$B$32)))</f>
+        <v>24.024680960029443</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>1.3997608921709845</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>23.017031600432489</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>1.0069712627229486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>3.3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="D5">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>21.349334803556619</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.32347476975085793</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>23.557964326001692</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1.7117668202711294</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>22.578886268162393</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>1.0961880396858132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>3.4</v>
+      </c>
+      <c r="B6">
+        <v>2.9</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>21.033030876033227</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30930927758872273</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>22.779536542352083</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1.5575519701608433</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>22.929455553058013</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>1.0948670182250253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>3.5</v>
+      </c>
+      <c r="B7">
+        <v>2.7</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>4.8</v>
+      </c>
+      <c r="E7">
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>20.730381559643103</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29614830799490127</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>21.220637000948059</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>1.5602168407406101</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>21.612673120510475</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>1.0557390117835537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>3.6</v>
+      </c>
+      <c r="B8">
+        <v>2.7</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>4.66</v>
+      </c>
+      <c r="E8">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>20.440431873490944</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.28389488713181793</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>21.220637000948059</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1.5602168407406101</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>20.996212045095092</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0.92560371131614494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>3.7</v>
+      </c>
+      <c r="B9">
+        <v>2.64</v>
+      </c>
+      <c r="C9">
+        <v>0.17</v>
+      </c>
+      <c r="D9">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E9">
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>20.162317800516348</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27246375406103007</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>20.752456945055325</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1.3268336714388624</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>20.908047024132649</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>1.0140388590602871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>3.8</v>
+      </c>
+      <c r="B10">
+        <v>2.54</v>
+      </c>
+      <c r="C10">
+        <v>0.17</v>
+      </c>
+      <c r="D10">
+        <v>4.74</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>19.895255442265412</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26177967687191372</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>19.971655485197953</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>1.3278847935808802</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>21.348625166840208</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.88053580778014595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>3.9</v>
+      </c>
+      <c r="B11">
+        <v>2.56</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>19.638531713284578</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25177604760621169</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>20.127865058367199</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1.5619737527956354</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>20.555142754054447</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0.92688324904961616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D12">
+        <v>4.32</v>
+      </c>
+      <c r="E12">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>19.391496323320229</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24239370404150232</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>19.659163703250091</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1.1720243910674366</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>19.494136540619831</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0.79701762360795136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B13">
+        <v>2.48</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+      <c r="D13">
+        <v>4.28</v>
+      </c>
+      <c r="E13">
+        <v>0.17</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>19.153554841865091</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23357993709591524</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>19.502881862623887</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1.562937317226923</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>19.316975620613793</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0.75312841366080185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>4.2</v>
+      </c>
+      <c r="B14">
+        <v>2.44</v>
+      </c>
+      <c r="C14">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="D14">
+        <v>4.26</v>
+      </c>
+      <c r="E14">
+        <v>0.17</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>18.924162676509425</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2252876509108275</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>19.190247203686862</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1.2507264333443964</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>19.22836088411221</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.75332197163557346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>4.3</v>
+      </c>
+      <c r="B15">
+        <v>2.42</v>
+      </c>
+      <c r="C15">
+        <v>0.17</v>
+      </c>
+      <c r="D15">
+        <v>4.2</v>
+      </c>
+      <c r="E15">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>18.702819826130234</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21747464914104928</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>19.033894754514524</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>1.3290945386843069</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>18.962380714540291</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0.79824469595804648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B16">
+        <v>2.4</v>
+      </c>
+      <c r="C16">
+        <v>0.17</v>
+      </c>
+      <c r="D16">
+        <v>4.2</v>
+      </c>
+      <c r="E16">
+        <v>0.17</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>18.489066293779288</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21010302606567335</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>18.877519138568331</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>1.3292906703572527</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>18.962380714540291</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0.75389776840482148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>4.5</v>
+      </c>
+      <c r="B17">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C17">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="D17">
+        <v>4.24</v>
+      </c>
+      <c r="E17">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>18.28247806343165</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20313864514924179</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>18.251788708860673</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>1.2518206628298045</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>19.139723423837463</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0.70919032244090896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C18">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D18">
+        <v>4.12</v>
+      </c>
+      <c r="E18">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>18.082663560470479</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19655069087467986</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>18.095300036784668</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>1.4084975730528377</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>18.607426827245291</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.79904548639290474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>4.7</v>
+      </c>
+      <c r="B19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.17</v>
+      </c>
+      <c r="D19">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E19">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>17.889260528640296</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19031128221957694</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>18.095300036784668</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>1.3302477078832355</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>18.3409795353002</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0.71078840778620411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>4.8</v>
+      </c>
+      <c r="B20">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C20">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D20">
+        <v>3.94</v>
+      </c>
+      <c r="E20">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>17.701933266768304</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18439513819550363</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>17.938789310125923</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>1.173912689953021</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>17.807500029097564</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0.71181893241597016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B21">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="D21">
+        <v>3.88</v>
+      </c>
+      <c r="E21">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>17.52037017727795</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17877928752324387</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>17.469126662481372</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>1.2526916836470721</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>17.540473075680541</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0.71232364244608393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C22">
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="D22">
+        <v>3.88</v>
+      </c>
+      <c r="E22">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>17.344281585752508</v>
+      </c>
+      <c r="G22" s="2">
+        <f>0.5*0.1*(( $B$25 )/( (2*A22*(10^3)*$B$27)^(3/2) ))*(10^12)*(2*(10^3)*$B$27)</f>
+        <v>0.17344281585752491</v>
+      </c>
+      <c r="H22">
+        <f>(2*$B$30/1)*SIN(0.5*ATAN(B22/(2*$B$32)))</f>
+        <v>17.78225671479159</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>1.2523477413210353</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>17.540473075680541</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0.66780341479320382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.23984193E-6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.1356676960000003E-15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>510998.95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>299792458</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>13.5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/3. Difracción de Electrones/CompleteData/datos_difracciones_de_electrones.xlsx
+++ b/3. Difracción de Electrones/CompleteData/datos_difracciones_de_electrones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\GitHub\Intermedio\3. Difracción de Electrones\CompleteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D66711-769F-4DA4-A5E9-6FAFFD4D9C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7261544D-F8E4-467B-A236-F24E1B900E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{68CDB326-4FC1-433B-83EA-E1E555C1F277}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{68CDB326-4FC1-433B-83EA-E1E555C1F277}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3156,19 +3156,19 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
-    <col min="6" max="7" width="12.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="7" width="12.21875" customWidth="1"/>
     <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.1</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.2</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.3</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3.4</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.5</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.6</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.7</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.8</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.9</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.0999999999999996</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.2</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.3</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4.4000000000000004</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4.5</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4.5999999999999996</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.7</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4.8</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4.9000000000000004</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3892,22 +3892,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D8BD8-6966-4FF1-8AD7-8B2318FC98EA}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.8984375" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1.2238044237287686</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.1</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0.96200787758734208</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.2</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>1.0069712627229486</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.3</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>1.0961880396858132</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3.4</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>1.0948670182250253</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.5</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>1.0557390117835537</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.6</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>0.92560371131614494</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.7</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>1.0140388590602871</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.8</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>0.88053580778014595</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.9</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>0.92688324904961616</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0.79701762360795136</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.0999999999999996</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0.75312841366080185</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.2</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>0.75332197163557346</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.3</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>0.79824469595804648</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4.4000000000000004</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>0.75389776840482148</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4.5</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>0.70919032244090896</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4.5999999999999996</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0.79904548639290474</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.7</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0.71078840778620411</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4.8</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>0.71181893241597016</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4.9000000000000004</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>0.71232364244608393</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>0.66780341479320382</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4818,7 +4818,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
